--- a/INT/INT_Simple/INT_Simple/Расчет для подавления дребеза.xlsx
+++ b/INT/INT_Simple/INT_Simple/Расчет для подавления дребеза.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B16" s="12">
         <v>1000</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="D16" s="18">
         <f>((A16+B16)*C16)/1000</f>
-        <v>1.1000000000000001</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
